--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="资产总表" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="255">
   <si>
     <t xml:space="preserve">Asset资产总表结构</t>
   </si>
@@ -125,6 +125,21 @@
     <t xml:space="preserve">产品序列号</t>
   </si>
   <si>
+    <t xml:space="preserve">purchase_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购买日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expire_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">过保日期</t>
+  </si>
+  <si>
     <t xml:space="preserve">manage_ip</t>
   </si>
   <si>
@@ -209,21 +224,6 @@
     <t xml:space="preserve">审批人</t>
   </si>
   <si>
-    <t xml:space="preserve">purchase_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">购买日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expire_day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">过保日期</t>
-  </si>
-  <si>
     <t xml:space="preserve">c_time</t>
   </si>
   <si>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">URL链接</t>
   </si>
   <si>
-    <t xml:space="preserve">*蓝色为打算修改部分</t>
+    <t xml:space="preserve">*蓝色为修改部分</t>
   </si>
   <si>
     <t xml:space="preserve">*黄色为不明白的</t>
@@ -302,9 +302,6 @@
     <t xml:space="preserve">添加方式</t>
   </si>
   <si>
-    <t xml:space="preserve">auto</t>
-  </si>
-  <si>
     <t xml:space="preserve">microcode</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t xml:space="preserve">安全设备类型</t>
   </si>
   <si>
-    <t xml:space="preserve">打算删了</t>
-  </si>
-  <si>
     <t xml:space="preserve">StorageDevice表结构</t>
   </si>
   <si>
@@ -492,6 +486,9 @@
   </si>
   <si>
     <t xml:space="preserve">Idc表结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所属单位</t>
   </si>
   <si>
     <t xml:space="preserve">idc_name</t>
@@ -935,7 +932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,7 +985,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,6 +994,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,17 +1114,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.13"/>
@@ -1355,9 +1356,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1414,19 +1413,17 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="I10" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1434,29 +1431,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="I11" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1466,14 +1461,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -1486,11 +1481,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="N12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1498,14 +1493,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -1518,8 +1513,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>40</v>
+      <c r="K13" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -1530,14 +1525,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -1551,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -1562,14 +1557,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -1583,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -1594,14 +1589,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1615,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1626,18 +1621,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="n">
@@ -1649,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -1660,16 +1653,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="n">
@@ -1681,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -1694,14 +1687,16 @@
       <c r="B19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="n">
@@ -1712,7 +1707,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1724,14 +1721,14 @@
       <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="n">
@@ -1742,7 +1739,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1759,7 +1758,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -1789,7 +1788,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -1862,7 +1861,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1894,7 +1893,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="16"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -1927,23 +1926,25 @@
       <c r="N26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="17"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
@@ -1964,10 +1965,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2019,7 +2020,7 @@
       <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2085,9 +2086,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -2113,9 +2112,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2129,10 +2126,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
@@ -2157,17 +2154,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9" t="n">
@@ -2183,7 +2180,7 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2191,10 +2188,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
@@ -2221,10 +2218,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
@@ -2249,10 +2246,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
@@ -2274,7 +2271,7 @@
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2360,7 +2357,7 @@
         <v>88</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>19</v>
@@ -2369,9 +2366,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2380,252 +2375,225 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    <row r="22" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A22:L22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2645,7 +2613,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2660,14 +2628,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2698,7 +2666,7 @@
       <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2728,17 +2696,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2761,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
@@ -2789,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
@@ -2818,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
@@ -2843,11 +2811,11 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2908,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
@@ -2935,7 +2903,7 @@
         <v>87</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M10" s="9"/>
     </row>
@@ -2944,10 +2912,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
@@ -2972,14 +2940,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3001,14 +2969,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -3026,36 +2994,36 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="A15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
@@ -3103,16 +3071,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="F17" s="24"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="n">
@@ -3132,14 +3100,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3163,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
@@ -3184,11 +3152,11 @@
       <c r="M19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3249,10 +3217,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -3260,7 +3228,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="24" t="n">
+      <c r="H23" s="25" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3277,10 +3245,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -3306,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>14</v>
@@ -3331,11 +3299,11 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H26" s="21"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3396,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -3426,10 +3394,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
@@ -3451,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
@@ -3476,7 +3444,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>14</v>
@@ -3503,7 +3471,7 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3564,16 +3532,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="F36" s="24"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3591,10 +3559,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
@@ -3619,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
@@ -3645,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
@@ -3669,7 +3637,7 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3730,16 +3698,16 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>163</v>
+        <v>55</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="F43" s="24"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -3757,10 +3725,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
@@ -3782,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
@@ -3808,10 +3776,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -3830,14 +3798,14 @@
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3900,14 +3868,14 @@
       <c r="B50" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>172</v>
+      <c r="C50" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9" t="n">
@@ -3918,8 +3886,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>40</v>
+      <c r="K50" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="9"/>
@@ -3929,14 +3897,14 @@
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -3960,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>76</v>
@@ -4011,8 +3979,8 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4033,7 +4001,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4072,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>13</v>
@@ -4111,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
@@ -4138,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
@@ -4165,10 +4133,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
@@ -4192,10 +4160,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
@@ -4219,10 +4187,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
@@ -4248,14 +4216,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -4275,14 +4243,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4296,7 +4264,7 @@
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4335,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
@@ -4374,10 +4342,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
@@ -4401,10 +4369,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
@@ -4428,10 +4396,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
@@ -4455,10 +4423,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
@@ -4475,7 +4443,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K18" s="9"/>
     </row>
@@ -4484,10 +4452,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
@@ -4511,10 +4479,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>19</v>
@@ -4540,14 +4508,14 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -4567,14 +4535,14 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="n">
@@ -4591,7 +4559,7 @@
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4630,7 +4598,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>13</v>
@@ -4669,10 +4637,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -4696,10 +4664,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
@@ -4723,10 +4691,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
@@ -4750,10 +4718,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
@@ -4777,13 +4745,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="9" t="n">
@@ -4804,13 +4772,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>217</v>
-      </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="9" t="n">
@@ -4831,10 +4799,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>19</v>
@@ -4860,10 +4828,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>220</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>221</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
@@ -4884,7 +4852,7 @@
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4923,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>13</v>
@@ -4962,10 +4930,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>19</v>
@@ -4991,10 +4959,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
@@ -5018,10 +4986,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
@@ -5045,10 +5013,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
@@ -5072,14 +5040,14 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="24" t="s">
-        <v>35</v>
+      <c r="E43" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="F43" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5092,7 +5060,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K43" s="9"/>
     </row>
@@ -5101,14 +5069,14 @@
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="24" t="s">
-        <v>35</v>
+      <c r="E44" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="F44" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5121,7 +5089,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -5130,10 +5098,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
@@ -5159,10 +5127,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>237</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -5189,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>19</v>
@@ -5212,7 +5180,7 @@
     </row>
     <row r="49" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5251,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>13</v>
@@ -5290,10 +5258,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
@@ -5317,10 +5285,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -5344,10 +5312,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
@@ -5371,10 +5339,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -5398,13 +5366,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="9" t="n">
@@ -5425,13 +5393,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="9" t="n">
@@ -5455,11 +5423,11 @@
         <v>70</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F58" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5500,7 +5468,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5511,12 +5479,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产总表" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="254">
   <si>
     <t xml:space="preserve">Asset资产总表结构</t>
   </si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t xml:space="preserve">合同编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唯一</t>
   </si>
   <si>
     <t xml:space="preserve">contract_name</t>
@@ -1116,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2612,8 +2609,8 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K43" activeCellId="0" sqref="K43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2902,9 +2899,7 @@
       <c r="K10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2912,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
@@ -2931,7 +2926,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2940,14 +2935,14 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2969,14 +2964,14 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -3010,7 +3005,7 @@
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -3071,14 +3066,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="9"/>
@@ -3100,14 +3095,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3131,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>43</v>
@@ -3156,7 +3151,7 @@
     </row>
     <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3217,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -3236,7 +3231,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -3245,10 +3240,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -3274,7 +3269,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>14</v>
@@ -3303,7 +3298,7 @@
     </row>
     <row r="27" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3364,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
@@ -3385,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -3394,10 +3389,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
@@ -3419,10 +3414,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
@@ -3444,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>14</v>
@@ -3471,7 +3466,7 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3535,7 +3530,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
@@ -3559,10 +3554,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
@@ -3578,7 +3573,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9"/>
     </row>
@@ -3587,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
@@ -3613,10 +3608,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
@@ -3637,7 +3632,7 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3701,7 +3696,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
@@ -3725,10 +3720,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
@@ -3750,10 +3745,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
@@ -3776,10 +3771,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -3798,14 +3793,14 @@
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3869,7 +3864,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
@@ -3900,7 +3895,7 @@
         <v>58</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
@@ -3928,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>76</v>
@@ -3979,7 +3974,7 @@
   </sheetPr>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +3996,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4040,7 +4035,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>13</v>
@@ -4079,10 +4074,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
@@ -4106,10 +4101,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
@@ -4133,10 +4128,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
@@ -4160,10 +4155,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>183</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
@@ -4187,10 +4182,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
@@ -4216,10 +4211,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
@@ -4243,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
@@ -4264,7 +4259,7 @@
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4303,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
@@ -4342,10 +4337,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
@@ -4369,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
@@ -4396,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
@@ -4423,10 +4418,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
@@ -4443,7 +4438,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K18" s="9"/>
     </row>
@@ -4452,10 +4447,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
@@ -4479,10 +4474,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>19</v>
@@ -4508,10 +4503,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
@@ -4535,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>189</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -4559,7 +4554,7 @@
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4598,7 +4593,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>13</v>
@@ -4637,10 +4632,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -4664,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
@@ -4691,10 +4686,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
@@ -4718,10 +4713,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
@@ -4745,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="25" t="s">
@@ -4772,10 +4767,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="25" t="s">
@@ -4799,10 +4794,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>19</v>
@@ -4828,10 +4823,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>219</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>220</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
@@ -4852,7 +4847,7 @@
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4891,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>13</v>
@@ -4930,10 +4925,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>19</v>
@@ -4959,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
@@ -4986,10 +4981,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
@@ -5013,10 +5008,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
@@ -5040,10 +5035,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="25" t="s">
@@ -5069,10 +5064,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="25" t="s">
@@ -5098,10 +5093,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
@@ -5127,10 +5122,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
@@ -5157,7 +5152,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>19</v>
@@ -5180,7 +5175,7 @@
     </row>
     <row r="49" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5219,7 +5214,7 @@
         <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>13</v>
@@ -5258,10 +5253,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
@@ -5285,10 +5280,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -5312,10 +5307,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
@@ -5339,10 +5334,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -5366,10 +5361,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="25" t="s">
@@ -5393,10 +5388,10 @@
         <v>7</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="25" t="s">
@@ -5423,11 +5418,11 @@
         <v>70</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F58" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5479,12 +5474,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="资产总表" sheetId="1" state="visible" r:id="rId2"/>
@@ -929,13 +929,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -954,32 +950,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1023,10 +999,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1125,8 +1097,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24"/>
@@ -1138,805 +1109,805 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="11" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="12" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="12" t="s">
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12" t="s">
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="12" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="9"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="17" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="17"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="18"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1986,603 +1957,603 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12" t="s">
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="12" t="s">
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="12" t="s">
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="12" t="s">
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2609,7 +2580,7 @@
   </sheetPr>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2631,1320 +2602,1320 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H7" s="22"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="11" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="22"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="11" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H26" s="22"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="11" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="F36" s="18"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="11" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="11" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="11" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="9"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="11" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="L49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K50" s="25" t="s">
+      <c r="F50" s="18"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="9"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="9" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="9"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="9"/>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3991,1451 +3962,1451 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="11" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="F9" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11" t="s">
+      <c r="F18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="F21" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="12" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="E33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="12" t="s">
+      <c r="I38" s="7"/>
+      <c r="J38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="E39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="11" t="s">
+      <c r="F43" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="12" t="s">
+      <c r="F44" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="9"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="11" t="s">
+      <c r="F45" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
+      <c r="A47" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="E47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="12" t="s">
+      <c r="I51" s="7"/>
+      <c r="J51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G54" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
+      <c r="A55" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
+      <c r="A56" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
+      <c r="A57" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+      <c r="A58" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="9" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="9"/>
+      <c r="F58" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5462,7 +5433,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
